--- a/campos_DB_por_año.xlsx
+++ b/campos_DB_por_año.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2011" sheetId="1" state="visible" r:id="rId2"/>
@@ -2063,6 +2063,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2097,7 +2098,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2106,10 +2107,38 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2130,20 +2159,6 @@
       <left/>
       <right style="hair"/>
       <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2194,7 +2209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2203,11 +2218,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2219,39 +2246,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2259,43 +2278,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2303,15 +2330,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2319,39 +2350,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2359,23 +2382,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2383,23 +2406,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2486,8 +2509,8 @@
   </sheetPr>
   <dimension ref="B1:D67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -2503,703 +2526,703 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="13" t="n">
+      <c r="D17" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="13" t="n">
+      <c r="D23" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D27" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="10" t="n">
+      <c r="D28" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D29" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="13" t="n">
+      <c r="D31" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D35" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="10" t="n">
+      <c r="D40" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="10" t="n">
+      <c r="D41" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="10" t="n">
+      <c r="D42" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="10" t="n">
+      <c r="D43" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="10" t="n">
+      <c r="D44" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="13" t="n">
+      <c r="D45" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="3" t="n">
+      <c r="D46" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="D47" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="3" t="n">
+      <c r="D48" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="10" t="n">
+      <c r="D50" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="10" t="n">
+      <c r="D51" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="10" t="n">
+      <c r="D52" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="10" t="n">
+      <c r="D53" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D54" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="10" t="n">
+      <c r="D55" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="10" t="n">
+      <c r="D56" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="10" t="n">
+      <c r="D57" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="10" t="n">
+      <c r="D58" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="10" t="n">
+      <c r="D59" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="10" t="n">
+      <c r="D60" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="10" t="n">
+      <c r="D61" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="10" t="n">
+      <c r="D62" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="10" t="n">
+      <c r="D63" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="10" t="n">
+      <c r="D64" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="13" t="n">
+      <c r="D65" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3207,10 +3230,10 @@
       <c r="B66" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D66" s="3" t="n">
+      <c r="D66" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3218,10 +3241,10 @@
       <c r="B67" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D67" s="3" t="n">
+      <c r="D67" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3250,19 +3273,20 @@
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="115.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3270,10 +3294,10 @@
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3281,10 +3305,10 @@
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3292,10 +3316,10 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3303,10 +3327,10 @@
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3314,10 +3338,10 @@
       <c r="B6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3325,10 +3349,10 @@
       <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3336,10 +3360,10 @@
       <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3347,10 +3371,10 @@
       <c r="B9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3358,10 +3382,10 @@
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3369,10 +3393,10 @@
       <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3380,10 +3404,10 @@
       <c r="B12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3391,10 +3415,10 @@
       <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3402,10 +3426,10 @@
       <c r="B14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3413,10 +3437,10 @@
       <c r="B15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3424,10 +3448,10 @@
       <c r="B16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3435,10 +3459,10 @@
       <c r="B17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3446,10 +3470,10 @@
       <c r="B18" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3457,10 +3481,10 @@
       <c r="B19" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3468,10 +3492,10 @@
       <c r="B20" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3479,10 +3503,10 @@
       <c r="B21" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="D21" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3490,10 +3514,10 @@
       <c r="B22" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3501,10 +3525,10 @@
       <c r="B23" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3512,10 +3536,10 @@
       <c r="B24" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3523,10 +3547,10 @@
       <c r="B25" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3534,10 +3558,10 @@
       <c r="B26" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3545,10 +3569,10 @@
       <c r="B27" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D27" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3556,10 +3580,10 @@
       <c r="B28" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="10" t="n">
+      <c r="D28" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3567,10 +3591,10 @@
       <c r="B29" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D29" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3578,10 +3602,10 @@
       <c r="B30" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3589,10 +3613,10 @@
       <c r="B31" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="10" t="n">
+      <c r="D31" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3600,10 +3624,10 @@
       <c r="B32" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D32" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3611,10 +3635,10 @@
       <c r="B33" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3622,10 +3646,10 @@
       <c r="B34" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3633,10 +3657,10 @@
       <c r="B35" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D35" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3644,10 +3668,10 @@
       <c r="B36" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3655,10 +3679,10 @@
       <c r="B37" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3666,10 +3690,10 @@
       <c r="B38" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="13" t="n">
+      <c r="D38" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3677,10 +3701,10 @@
       <c r="B39" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3688,10 +3712,10 @@
       <c r="B40" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3699,10 +3723,10 @@
       <c r="B41" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3710,10 +3734,10 @@
       <c r="B42" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3721,10 +3745,10 @@
       <c r="B43" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3732,10 +3756,10 @@
       <c r="B44" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D44" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3743,10 +3767,10 @@
       <c r="B45" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="D45" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3754,10 +3778,10 @@
       <c r="B46" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3765,10 +3789,10 @@
       <c r="B47" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="10" t="n">
+      <c r="D47" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3776,10 +3800,10 @@
       <c r="B48" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="10" t="n">
+      <c r="D48" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3787,10 +3811,10 @@
       <c r="B49" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="10" t="n">
+      <c r="D49" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3798,10 +3822,10 @@
       <c r="B50" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="10" t="n">
+      <c r="D50" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3809,10 +3833,10 @@
       <c r="B51" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="10" t="n">
+      <c r="D51" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3820,10 +3844,10 @@
       <c r="B52" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="10" t="n">
+      <c r="D52" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3831,10 +3855,10 @@
       <c r="B53" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="10" t="n">
+      <c r="D53" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3842,10 +3866,10 @@
       <c r="B54" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D54" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3853,10 +3877,10 @@
       <c r="B55" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="10" t="n">
+      <c r="D55" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3864,10 +3888,10 @@
       <c r="B56" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="10" t="n">
+      <c r="D56" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3875,10 +3899,10 @@
       <c r="B57" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D57" s="10" t="n">
+      <c r="D57" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3886,10 +3910,10 @@
       <c r="B58" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D58" s="10" t="n">
+      <c r="D58" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3897,10 +3921,10 @@
       <c r="B59" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D59" s="10" t="n">
+      <c r="D59" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3908,10 +3932,10 @@
       <c r="B60" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="10" t="n">
+      <c r="D60" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3919,10 +3943,10 @@
       <c r="B61" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="10" t="n">
+      <c r="D61" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3930,10 +3954,10 @@
       <c r="B62" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="10" t="n">
+      <c r="D62" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3941,10 +3965,10 @@
       <c r="B63" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="10" t="n">
+      <c r="D63" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3952,10 +3976,10 @@
       <c r="B64" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D64" s="10" t="n">
+      <c r="D64" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3963,10 +3987,10 @@
       <c r="B65" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="13" t="n">
+      <c r="D65" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3974,10 +3998,10 @@
       <c r="B66" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D66" s="3" t="n">
+      <c r="D66" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3985,10 +4009,10 @@
       <c r="B67" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3996,10 +4020,10 @@
       <c r="B68" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D68" s="10" t="n">
+      <c r="D68" s="6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4007,10 +4031,10 @@
       <c r="B69" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="10" t="n">
+      <c r="D69" s="6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4018,10 +4042,10 @@
       <c r="B70" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="10" t="n">
+      <c r="D70" s="6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4029,10 +4053,10 @@
       <c r="B71" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="10" t="n">
+      <c r="D71" s="6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4040,10 +4064,10 @@
       <c r="B72" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="13" t="n">
+      <c r="D72" s="14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4051,10 +4075,10 @@
       <c r="B73" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D73" s="3" t="n">
+      <c r="D73" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4062,10 +4086,10 @@
       <c r="B74" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="3" t="n">
+      <c r="D74" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4073,10 +4097,10 @@
       <c r="B75" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D75" s="3" t="n">
+      <c r="D75" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4084,10 +4108,10 @@
       <c r="B76" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D76" s="3" t="n">
+      <c r="D76" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4118,17 +4142,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="103.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4136,10 +4162,10 @@
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4147,10 +4173,10 @@
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4158,10 +4184,10 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4169,10 +4195,10 @@
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4180,10 +4206,10 @@
       <c r="B6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4191,10 +4217,10 @@
       <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4202,10 +4228,10 @@
       <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4213,10 +4239,10 @@
       <c r="B9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4224,834 +4250,834 @@
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="18" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="28" t="n">
+      <c r="D11" s="30" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D21" s="28" t="n">
+      <c r="D21" s="30" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="29"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="29"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="28" t="n">
+      <c r="D36" s="30" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="33"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="35"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="33"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="35"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="33"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="35"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="33"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="33"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="33"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="35"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="34"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="36"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="28" t="n">
+      <c r="D44" s="30" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="29"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="29"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="29"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="29"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="29"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="31"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="33"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="28" t="n">
+      <c r="D51" s="30" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="29"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="31"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="29"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="31"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="29"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="31"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="29"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="33"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="17"/>
+      <c r="D57" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="40"/>
+      <c r="F57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41" t="s">
+      <c r="D58" s="42"/>
+      <c r="E58" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F58" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="41" t="s">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="41" t="s">
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="41" t="s">
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="F61" s="17" t="s">
+      <c r="F61" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="41" t="s">
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="F62" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="41" t="s">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="41" t="s">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F64" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="41" t="s">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="41" t="s">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="F66" s="17" t="s">
+      <c r="F66" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="41" t="s">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="41" t="s">
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="F68" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="41" t="s">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="41" t="s">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="44" t="s">
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="F71" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D72" s="45" t="n">
-        <v>2</v>
-      </c>
-      <c r="E72" s="45" t="s">
+      <c r="D72" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="F72" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="46" t="s">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F73" s="29" t="s">
+      <c r="F73" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="46" t="s">
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F74" s="29" t="s">
+      <c r="F74" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="46" t="s">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="F75" s="29" t="s">
+      <c r="F75" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="46" t="s">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="F76" s="29" t="s">
+      <c r="F76" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="46" t="s">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="F77" s="29" t="s">
+      <c r="F77" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="46" t="s">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="46" t="s">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F79" s="29" t="s">
+      <c r="F79" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="46" t="s">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="F80" s="29" t="s">
+      <c r="F80" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="46" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="F81" s="29" t="s">
+      <c r="F81" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="47" t="s">
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="F82" s="31" t="s">
+      <c r="F82" s="33" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D83" s="32" t="n">
+      <c r="D83" s="34" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D84" s="29"/>
+      <c r="D84" s="31"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="29"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="31"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="29"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="31"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="29"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="31"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="29"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="31"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="29"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="31"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="29"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="31"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="29"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="31"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="29"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="31"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="29"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="31"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B94" s="25" t="s">
+      <c r="B94" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="29"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="31"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="29"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="31"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="29"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="31"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="29"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="31"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="29"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="31"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C99" s="30"/>
-      <c r="D99" s="31"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="33"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B100" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D100" s="3" t="n">
+      <c r="D100" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5059,10 +5085,10 @@
       <c r="B101" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D101" s="3" t="n">
+      <c r="D101" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5070,180 +5096,180 @@
       <c r="B102" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D102" s="3" t="n">
+      <c r="D102" s="18" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B103" s="24" t="s">
+      <c r="B103" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="D103" s="28" t="n">
+      <c r="D103" s="30" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B104" s="25" t="s">
+      <c r="B104" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="33"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="35"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B105" s="25" t="s">
+      <c r="B105" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="33"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B106" s="25" t="s">
+      <c r="B106" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="33"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="35"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B107" s="25" t="s">
+      <c r="B107" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="33"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="35"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B108" s="25" t="s">
+      <c r="B108" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="33"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="35"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B109" s="25" t="s">
+      <c r="B109" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="33"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="35"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B110" s="25" t="s">
+      <c r="B110" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="33"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="35"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B111" s="25" t="s">
+      <c r="B111" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="33"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="35"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B112" s="25" t="s">
+      <c r="B112" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="33"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="35"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B113" s="25" t="s">
+      <c r="B113" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="33"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="35"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="33"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="35"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B115" s="25" t="s">
+      <c r="B115" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="33"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="35"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="30"/>
-      <c r="D116" s="34"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="36"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B117" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D117" s="3" t="n">
+      <c r="D117" s="18" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C118" s="27" t="s">
+      <c r="C118" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="D118" s="28" t="n">
+      <c r="D118" s="30" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="33"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="35"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B120" s="25" t="s">
+      <c r="B120" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="33"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="35"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B121" s="25" t="s">
+      <c r="B121" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="33"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="35"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B122" s="25" t="s">
+      <c r="B122" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="33"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="35"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B123" s="26" t="s">
+      <c r="B123" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="C123" s="30"/>
-      <c r="D123" s="34"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="36"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B124" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D124" s="3" t="n">
+      <c r="D124" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5251,44 +5277,44 @@
       <c r="B125" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D125" s="3" t="n">
+      <c r="D125" s="18" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C126" s="27" t="s">
+      <c r="C126" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="D126" s="28" t="n">
+      <c r="D126" s="30" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B127" s="25" t="s">
+      <c r="B127" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="33"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="35"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B128" s="25" t="s">
+      <c r="B128" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="33"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="35"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C129" s="30"/>
-      <c r="D129" s="34"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="36"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5318,16 +5344,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="133.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5335,10 +5362,10 @@
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5346,10 +5373,10 @@
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5357,10 +5384,10 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5368,10 +5395,10 @@
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5379,10 +5406,10 @@
       <c r="B6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5390,10 +5417,10 @@
       <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5401,10 +5428,10 @@
       <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5412,10 +5439,10 @@
       <c r="B9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5423,10 +5450,10 @@
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5434,10 +5461,10 @@
       <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5445,10 +5472,10 @@
       <c r="B12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5456,10 +5483,10 @@
       <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5467,10 +5494,10 @@
       <c r="B14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5478,10 +5505,10 @@
       <c r="B15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5489,10 +5516,10 @@
       <c r="B16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5500,10 +5527,10 @@
       <c r="B17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5511,10 +5538,10 @@
       <c r="B18" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5522,10 +5549,10 @@
       <c r="B19" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5533,10 +5560,10 @@
       <c r="B20" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5544,10 +5571,10 @@
       <c r="B21" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="D21" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5555,10 +5582,10 @@
       <c r="B22" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5566,10 +5593,10 @@
       <c r="B23" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5577,10 +5604,10 @@
       <c r="B24" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5588,10 +5615,10 @@
       <c r="B25" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5599,10 +5626,10 @@
       <c r="B26" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5610,10 +5637,10 @@
       <c r="B27" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D27" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5621,10 +5648,10 @@
       <c r="B28" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D28" s="10" t="n">
+      <c r="D28" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5632,10 +5659,10 @@
       <c r="B29" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D29" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5643,10 +5670,10 @@
       <c r="B30" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="13" t="n">
+      <c r="D30" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5654,10 +5681,10 @@
       <c r="B31" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5665,10 +5692,10 @@
       <c r="B32" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D32" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5676,10 +5703,10 @@
       <c r="B33" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5687,10 +5714,10 @@
       <c r="B34" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5698,10 +5725,10 @@
       <c r="B35" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="13" t="n">
+      <c r="D35" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5709,10 +5736,10 @@
       <c r="B36" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5720,10 +5747,10 @@
       <c r="B37" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5731,10 +5758,10 @@
       <c r="B38" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5742,10 +5769,10 @@
       <c r="B39" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5753,10 +5780,10 @@
       <c r="B40" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="10" t="n">
+      <c r="D40" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5764,10 +5791,10 @@
       <c r="B41" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D41" s="10" t="n">
+      <c r="D41" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5775,10 +5802,10 @@
       <c r="B42" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="13" t="n">
+      <c r="D42" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5786,10 +5813,10 @@
       <c r="B43" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5797,10 +5824,10 @@
       <c r="B44" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="40" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5808,10 +5835,10 @@
       <c r="B45" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="41" t="n">
+      <c r="D45" s="43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5819,10 +5846,10 @@
       <c r="B46" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="41" t="n">
+      <c r="D46" s="43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5830,10 +5857,10 @@
       <c r="B47" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="41" t="n">
+      <c r="D47" s="43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5841,10 +5868,10 @@
       <c r="B48" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="41" t="n">
+      <c r="D48" s="43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5852,10 +5879,10 @@
       <c r="B49" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="D49" s="41" t="n">
+      <c r="D49" s="43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5863,10 +5890,10 @@
       <c r="B50" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="41" t="n">
+      <c r="D50" s="43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5874,10 +5901,10 @@
       <c r="B51" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="41" t="n">
+      <c r="D51" s="43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5885,10 +5912,10 @@
       <c r="B52" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="41" t="n">
+      <c r="D52" s="43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5896,10 +5923,10 @@
       <c r="B53" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="41" t="n">
+      <c r="D53" s="43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5907,10 +5934,10 @@
       <c r="B54" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="41" t="n">
+      <c r="D54" s="43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5918,10 +5945,10 @@
       <c r="B55" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="44" t="n">
+      <c r="D55" s="46" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5929,10 +5956,10 @@
       <c r="B56" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5940,10 +5967,10 @@
       <c r="B57" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D57" s="10" t="n">
+      <c r="D57" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5951,10 +5978,10 @@
       <c r="B58" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D58" s="10" t="n">
+      <c r="D58" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5962,10 +5989,10 @@
       <c r="B59" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D59" s="10" t="n">
+      <c r="D59" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5973,10 +6000,10 @@
       <c r="B60" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="10" t="n">
+      <c r="D60" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5984,10 +6011,10 @@
       <c r="B61" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D61" s="10" t="n">
+      <c r="D61" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5995,10 +6022,10 @@
       <c r="B62" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D62" s="10" t="n">
+      <c r="D62" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6006,10 +6033,10 @@
       <c r="B63" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D63" s="10" t="n">
+      <c r="D63" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6017,10 +6044,10 @@
       <c r="B64" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D64" s="10" t="n">
+      <c r="D64" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6028,10 +6055,10 @@
       <c r="B65" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="D65" s="10" t="n">
+      <c r="D65" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6039,10 +6066,10 @@
       <c r="B66" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="D66" s="10" t="n">
+      <c r="D66" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6050,10 +6077,10 @@
       <c r="B67" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D67" s="10" t="n">
+      <c r="D67" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6061,10 +6088,10 @@
       <c r="B68" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="D68" s="13" t="n">
+      <c r="D68" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6072,10 +6099,10 @@
       <c r="B69" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="49" t="s">
+      <c r="D69" s="51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6083,10 +6110,10 @@
       <c r="B70" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D70" s="51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6094,10 +6121,10 @@
       <c r="B71" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="D71" s="10" t="n">
+      <c r="D71" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6105,10 +6132,10 @@
       <c r="B72" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="10" t="n">
+      <c r="D72" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6116,10 +6143,10 @@
       <c r="B73" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D73" s="10" t="n">
+      <c r="D73" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6127,10 +6154,10 @@
       <c r="B74" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="D74" s="10" t="n">
+      <c r="D74" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6138,10 +6165,10 @@
       <c r="B75" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D75" s="10" t="n">
+      <c r="D75" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6149,10 +6176,10 @@
       <c r="B76" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="D76" s="10" t="n">
+      <c r="D76" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6160,10 +6187,10 @@
       <c r="B77" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D77" s="10" t="n">
+      <c r="D77" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6171,10 +6198,10 @@
       <c r="B78" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D78" s="10" t="n">
+      <c r="D78" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6182,10 +6209,10 @@
       <c r="B79" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D79" s="10" t="n">
+      <c r="D79" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6193,10 +6220,10 @@
       <c r="B80" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D80" s="10" t="n">
+      <c r="D80" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6204,10 +6231,10 @@
       <c r="B81" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D81" s="10" t="n">
+      <c r="D81" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6215,10 +6242,10 @@
       <c r="B82" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="D82" s="10" t="n">
+      <c r="D82" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6226,10 +6253,10 @@
       <c r="B83" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D83" s="13" t="n">
+      <c r="D83" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6237,7 +6264,7 @@
       <c r="B84" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="8" t="s">
         <v>225</v>
       </c>
       <c r="D84" s="0" t="n">
@@ -6248,7 +6275,7 @@
       <c r="B85" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="8" t="s">
         <v>300</v>
       </c>
       <c r="D85" s="0" t="n">
@@ -6259,7 +6286,7 @@
       <c r="B86" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D86" s="0" t="n">
@@ -6270,7 +6297,7 @@
       <c r="B87" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="8" t="s">
         <v>301</v>
       </c>
       <c r="D87" s="0" t="n">
@@ -6281,7 +6308,7 @@
       <c r="B88" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="8" t="s">
         <v>302</v>
       </c>
       <c r="D88" s="0" t="n">
@@ -6292,10 +6319,10 @@
       <c r="B89" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C89" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6303,10 +6330,10 @@
       <c r="B90" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="D90" s="50" t="n">
+      <c r="D90" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6314,10 +6341,10 @@
       <c r="B91" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="D91" s="50" t="n">
+      <c r="D91" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6325,10 +6352,10 @@
       <c r="B92" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="D92" s="50" t="n">
+      <c r="D92" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6336,10 +6363,10 @@
       <c r="B93" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="D93" s="51" t="n">
+      <c r="D93" s="53" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6347,10 +6374,10 @@
       <c r="B94" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="D94" s="49" t="s">
+      <c r="D94" s="51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6358,10 +6385,10 @@
       <c r="B95" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="D95" s="50" t="n">
+      <c r="D95" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6369,10 +6396,10 @@
       <c r="B96" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D96" s="50" t="n">
+      <c r="D96" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6380,10 +6407,10 @@
       <c r="B97" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D97" s="50" t="n">
+      <c r="D97" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6391,10 +6418,10 @@
       <c r="B98" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D98" s="50" t="n">
+      <c r="D98" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6402,10 +6429,10 @@
       <c r="B99" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D99" s="50" t="n">
+      <c r="D99" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6413,10 +6440,10 @@
       <c r="B100" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="51" t="n">
+      <c r="D100" s="53" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6424,7 +6451,7 @@
       <c r="B101" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="8" t="s">
         <v>315</v>
       </c>
       <c r="D101" s="0" t="n">
@@ -6435,7 +6462,7 @@
       <c r="B102" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="8" t="s">
         <v>316</v>
       </c>
       <c r="D102" s="0" t="n">
@@ -6446,7 +6473,7 @@
       <c r="B103" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="8" t="s">
         <v>317</v>
       </c>
       <c r="D103" s="0" t="n">
@@ -6457,10 +6484,10 @@
       <c r="B104" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C104" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="D104" s="49" t="s">
+      <c r="D104" s="51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6468,10 +6495,10 @@
       <c r="B105" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D105" s="50" t="n">
+      <c r="D105" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6479,10 +6506,10 @@
       <c r="B106" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C106" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D106" s="50" t="n">
+      <c r="D106" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6490,10 +6517,10 @@
       <c r="B107" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C107" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D107" s="50" t="n">
+      <c r="D107" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6501,10 +6528,10 @@
       <c r="B108" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D108" s="50" t="n">
+      <c r="D108" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6512,10 +6539,10 @@
       <c r="B109" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D109" s="50" t="n">
+      <c r="D109" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6523,10 +6550,10 @@
       <c r="B110" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="D110" s="51" t="n">
+      <c r="D110" s="53" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6534,7 +6561,7 @@
       <c r="B111" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="8" t="s">
         <v>320</v>
       </c>
       <c r="D111" s="0" t="n">
@@ -6545,7 +6572,7 @@
       <c r="B112" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="8" t="s">
         <v>321</v>
       </c>
       <c r="D112" s="0" t="n">
@@ -6556,7 +6583,7 @@
       <c r="B113" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="8" t="s">
         <v>166</v>
       </c>
       <c r="D113" s="0" t="n">
@@ -6567,7 +6594,7 @@
       <c r="B114" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="8" t="s">
         <v>168</v>
       </c>
       <c r="D114" s="0" t="n">
@@ -6578,10 +6605,10 @@
       <c r="B115" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="D115" s="49" t="s">
+      <c r="D115" s="51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6589,10 +6616,10 @@
       <c r="B116" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="D116" s="50" t="n">
+      <c r="D116" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6600,10 +6627,10 @@
       <c r="B117" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D117" s="50" t="n">
+      <c r="D117" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6611,10 +6638,10 @@
       <c r="B118" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D118" s="50" t="n">
+      <c r="D118" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6622,10 +6649,10 @@
       <c r="B119" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D119" s="50" t="n">
+      <c r="D119" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6633,10 +6660,10 @@
       <c r="B120" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="C120" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D120" s="50" t="n">
+      <c r="D120" s="52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6644,7 +6671,7 @@
       <c r="B121" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C121" s="52" t="s">
+      <c r="C121" s="54" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6677,16 +6704,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6694,7 +6722,7 @@
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -6705,7 +6733,7 @@
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -6726,7 +6754,7 @@
       <c r="B6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -6737,7 +6765,7 @@
       <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6767,602 +6795,602 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="19"/>
+      <c r="E33" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="19"/>
+      <c r="E35" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17" t="s">
+      <c r="D36" s="19"/>
+      <c r="E36" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17" t="s">
+      <c r="D37" s="19"/>
+      <c r="E37" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="19"/>
+      <c r="E38" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="19"/>
+      <c r="E39" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17" t="s">
+      <c r="D41" s="19"/>
+      <c r="E41" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17" t="s">
+      <c r="D42" s="19"/>
+      <c r="E42" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
+      <c r="D43" s="19"/>
+      <c r="E43" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17" t="s">
+      <c r="D44" s="19"/>
+      <c r="E44" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17" t="s">
+      <c r="D45" s="19"/>
+      <c r="E45" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17" t="s">
+      <c r="D46" s="19"/>
+      <c r="E46" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17" t="s">
+      <c r="D47" s="19"/>
+      <c r="E47" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17" t="s">
+      <c r="D48" s="19"/>
+      <c r="E48" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17" t="s">
+      <c r="D49" s="19"/>
+      <c r="E49" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17" t="s">
+      <c r="D50" s="19"/>
+      <c r="E50" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17" t="s">
+      <c r="D51" s="19"/>
+      <c r="E51" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17" t="s">
+      <c r="D52" s="19"/>
+      <c r="E52" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="19" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8246,18 +8274,19 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8278,7 +8307,7 @@
       <c r="B4" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>260</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -8299,7 +8328,7 @@
       <c r="B7" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -8320,7 +8349,7 @@
       <c r="B10" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8338,7 +8367,7 @@
       <c r="B13" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
@@ -8354,7 +8383,7 @@
       <c r="B15" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="19" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="0" t="s">
@@ -8375,7 +8404,7 @@
       <c r="B18" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="19" t="s">
         <v>460</v>
       </c>
       <c r="D18" s="0" t="s">
@@ -8645,8 +8674,8 @@
   </sheetPr>
   <dimension ref="B1:D155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C177" activeCellId="0" sqref="C177"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C162" activeCellId="0" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -8654,16 +8683,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8686,10 +8716,10 @@
       <c r="B5" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="18" t="s">
         <v>445</v>
       </c>
     </row>
@@ -8732,10 +8762,10 @@
       <c r="B13" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="18" t="s">
         <v>445</v>
       </c>
     </row>
@@ -8753,10 +8783,10 @@
       <c r="B16" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="18" t="s">
         <v>445</v>
       </c>
     </row>
@@ -9129,7 +9159,7 @@
       <c r="B90" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="19" t="s">
         <v>460</v>
       </c>
     </row>
@@ -9452,7 +9482,7 @@
       <c r="B154" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="19" t="s">
         <v>95</v>
       </c>
     </row>
